--- a/SRE Questions.xlsx
+++ b/SRE Questions.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB78151-19DA-46BA-9569-CE22E5DB7E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\devops\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFB7E8-6170-4168-9FAA-A8405E89CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -284,7 +289,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +318,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,6 +385,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,7 +728,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -722,7 +736,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -730,7 +744,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -738,7 +752,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -754,7 +768,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -762,7 +776,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -770,7 +784,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
@@ -820,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.75">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="33.75">
+    <row r="53" spans="1:2" ht="29.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1156,6 +1170,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LastEdited xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xsi:nil="true"/>
@@ -1167,15 +1190,6 @@
     <TaxCatchAll xmlns="7b7ae8f5-97b4-4248-be23-4af27ec1f6de" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1428,13 +1442,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60666BD5-3C91-4547-83FA-ADD3AEA97117}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A487BF5D-29AA-4569-B233-70CFD0AE2529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A487BF5D-29AA-4569-B233-70CFD0AE2529}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60666BD5-3C91-4547-83FA-ADD3AEA97117}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd751ca9-6dbe-4efe-aa15-2abff377ebd9"/>
+    <ds:schemaRef ds:uri="7b7ae8f5-97b4-4248-be23-4af27ec1f6de"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29E8A88-7225-4703-B21A-A90A5658C63F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29E8A88-7225-4703-B21A-A90A5658C63F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd751ca9-6dbe-4efe-aa15-2abff377ebd9"/>
+    <ds:schemaRef ds:uri="7b7ae8f5-97b4-4248-be23-4af27ec1f6de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SRE Questions.xlsx
+++ b/SRE Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\devops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFB7E8-6170-4168-9FAA-A8405E89CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE024C37-960A-40C1-8445-5FBBADA14879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,29 +1170,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LastEdited xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xsi:nil="true"/>
-    <Includes xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Remarks xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7b7ae8f5-97b4-4248-be23-4af27ec1f6de" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096632FC88E3A21409E23E3227AA9689A" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68e2bf06b4bb54a2a148aacd7ee84adb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xmlns:ns3="7b7ae8f5-97b4-4248-be23-4af27ec1f6de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10bfba3bcb2d67f81762c06284f5a7e8" ns2:_="" ns3:_="">
     <xsd:import namespace="fd751ca9-6dbe-4efe-aa15-2abff377ebd9"/>
@@ -1441,10 +1418,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LastEdited xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xsi:nil="true"/>
+    <Includes xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Remarks xmlns="fd751ca9-6dbe-4efe-aa15-2abff377ebd9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7b7ae8f5-97b4-4248-be23-4af27ec1f6de" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A487BF5D-29AA-4569-B233-70CFD0AE2529}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29E8A88-7225-4703-B21A-A90A5658C63F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd751ca9-6dbe-4efe-aa15-2abff377ebd9"/>
+    <ds:schemaRef ds:uri="7b7ae8f5-97b4-4248-be23-4af27ec1f6de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1461,20 +1472,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29E8A88-7225-4703-B21A-A90A5658C63F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A487BF5D-29AA-4569-B233-70CFD0AE2529}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd751ca9-6dbe-4efe-aa15-2abff377ebd9"/>
-    <ds:schemaRef ds:uri="7b7ae8f5-97b4-4248-be23-4af27ec1f6de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>